--- a/labelled_csv_files/labelled_M_0399_12y4m_1_fa.xlsx
+++ b/labelled_csv_files/labelled_M_0399_12y4m_1_fa.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shababayub/go/src/github.com/s4ayub/fydp/labelled_csv_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahul/Documents/fydp/labelled_csv_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{16896398-933F-BF45-8B93-0A44F70CB968}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{05E911D1-7F09-C242-951E-D1AA034EDEB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="12180" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="labelled_M_0399_12y4m_1_fa" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2460,8 +2468,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="H276" sqref="H276"/>
+    <sheetView tabSelected="1" topLeftCell="A321" zoomScale="139" zoomScaleNormal="152" workbookViewId="0">
+      <selection activeCell="F337" sqref="F337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8061,10 +8069,10 @@
         <v>430</v>
       </c>
       <c r="C278">
-        <v>102.08</v>
+        <v>127.1</v>
       </c>
       <c r="D278">
-        <v>102.08</v>
+        <v>127.25</v>
       </c>
       <c r="E278" t="s">
         <v>431</v>
@@ -8081,10 +8089,11 @@
         <v>433</v>
       </c>
       <c r="C279">
-        <v>102.08</v>
+        <f>D278</f>
+        <v>127.25</v>
       </c>
       <c r="D279">
-        <v>102.08</v>
+        <v>127.35</v>
       </c>
       <c r="E279" t="s">
         <v>431</v>
@@ -8101,10 +8110,11 @@
         <v>434</v>
       </c>
       <c r="C280">
-        <v>102.08</v>
+        <f t="shared" ref="C280:C283" si="0">D279</f>
+        <v>127.35</v>
       </c>
       <c r="D280">
-        <v>102.08</v>
+        <v>127.5</v>
       </c>
       <c r="E280" t="s">
         <v>431</v>
@@ -8121,10 +8131,11 @@
         <v>435</v>
       </c>
       <c r="C281">
-        <v>102.08</v>
+        <f t="shared" si="0"/>
+        <v>127.5</v>
       </c>
       <c r="D281">
-        <v>102.08</v>
+        <v>127.65</v>
       </c>
       <c r="E281" t="s">
         <v>431</v>
@@ -8141,10 +8152,11 @@
         <v>436</v>
       </c>
       <c r="C282">
-        <v>102.08</v>
+        <f t="shared" si="0"/>
+        <v>127.65</v>
       </c>
       <c r="D282">
-        <v>102.08</v>
+        <v>127.85</v>
       </c>
       <c r="E282" t="s">
         <v>431</v>
@@ -8161,10 +8173,11 @@
         <v>437</v>
       </c>
       <c r="C283">
-        <v>102.08</v>
+        <f>D282</f>
+        <v>127.85</v>
       </c>
       <c r="D283">
-        <v>102.285</v>
+        <v>128.19999999999999</v>
       </c>
       <c r="E283" t="s">
         <v>438</v>
@@ -8181,10 +8194,11 @@
         <v>439</v>
       </c>
       <c r="C284">
-        <v>102.285</v>
+        <f>D283</f>
+        <v>128.19999999999999</v>
       </c>
       <c r="D284">
-        <v>108.63</v>
+        <v>128.63</v>
       </c>
       <c r="E284" t="s">
         <v>440</v>
@@ -8441,10 +8455,10 @@
         <v>458</v>
       </c>
       <c r="C297">
-        <v>124.34</v>
+        <v>133.34</v>
       </c>
       <c r="D297">
-        <v>124.34</v>
+        <v>133.5</v>
       </c>
       <c r="E297" t="s">
         <v>459</v>
@@ -8461,10 +8475,10 @@
         <v>460</v>
       </c>
       <c r="C298">
-        <v>124.34</v>
+        <v>133.5</v>
       </c>
       <c r="D298">
-        <v>124.34</v>
+        <v>133.69999999999999</v>
       </c>
       <c r="E298" t="s">
         <v>459</v>
@@ -8484,7 +8498,7 @@
         <v>124.34</v>
       </c>
       <c r="D299">
-        <v>124.34</v>
+        <v>124.6</v>
       </c>
       <c r="E299" t="s">
         <v>462</v>
@@ -8501,10 +8515,10 @@
         <v>463</v>
       </c>
       <c r="C300">
-        <v>124.34</v>
+        <v>124.6</v>
       </c>
       <c r="D300">
-        <v>124.41500000000001</v>
+        <v>125</v>
       </c>
       <c r="E300" t="s">
         <v>31</v>
@@ -8521,7 +8535,8 @@
         <v>464</v>
       </c>
       <c r="C301">
-        <v>124.41500000000001</v>
+        <f>D300</f>
+        <v>125</v>
       </c>
       <c r="D301">
         <v>124.895</v>
@@ -8541,6 +8556,7 @@
         <v>465</v>
       </c>
       <c r="C302">
+        <f t="shared" ref="C302:C307" si="1">D301</f>
         <v>124.895</v>
       </c>
       <c r="D302">
@@ -8561,6 +8577,7 @@
         <v>466</v>
       </c>
       <c r="C303">
+        <f t="shared" si="1"/>
         <v>125.23</v>
       </c>
       <c r="D303">
@@ -8581,6 +8598,7 @@
         <v>467</v>
       </c>
       <c r="C304">
+        <f t="shared" si="1"/>
         <v>125.25</v>
       </c>
       <c r="D304">
@@ -8601,6 +8619,7 @@
         <v>469</v>
       </c>
       <c r="C305">
+        <f t="shared" si="1"/>
         <v>125.31</v>
       </c>
       <c r="D305">
@@ -8621,6 +8640,7 @@
         <v>471</v>
       </c>
       <c r="C306">
+        <f t="shared" si="1"/>
         <v>126.08</v>
       </c>
       <c r="D306">
@@ -8641,6 +8661,7 @@
         <v>473</v>
       </c>
       <c r="C307">
+        <f t="shared" si="1"/>
         <v>127.25</v>
       </c>
       <c r="D307">
@@ -9001,10 +9022,10 @@
         <v>497</v>
       </c>
       <c r="C325">
-        <v>138.035</v>
+        <v>145.035</v>
       </c>
       <c r="D325">
-        <v>138.04</v>
+        <v>145.63999999999999</v>
       </c>
       <c r="E325" t="s">
         <v>498</v>
@@ -9021,10 +9042,11 @@
         <v>499</v>
       </c>
       <c r="C326">
-        <v>138.04</v>
+        <f>D325</f>
+        <v>145.63999999999999</v>
       </c>
       <c r="D326">
-        <v>139.32</v>
+        <v>145.72</v>
       </c>
       <c r="E326" t="s">
         <v>500</v>
@@ -9041,10 +9063,11 @@
         <v>501</v>
       </c>
       <c r="C327">
-        <v>139.32</v>
+        <f t="shared" ref="C327:C336" si="2">D326</f>
+        <v>145.72</v>
       </c>
       <c r="D327">
-        <v>140.76</v>
+        <v>146.46</v>
       </c>
       <c r="E327" t="s">
         <v>502</v>
@@ -9061,10 +9084,11 @@
         <v>503</v>
       </c>
       <c r="C328">
-        <v>140.76</v>
+        <f>D327</f>
+        <v>146.46</v>
       </c>
       <c r="D328">
-        <v>141.05000000000001</v>
+        <v>147.1</v>
       </c>
       <c r="E328" t="s">
         <v>504</v>
@@ -9081,10 +9105,11 @@
         <v>505</v>
       </c>
       <c r="C329">
-        <v>141.05000000000001</v>
+        <f t="shared" si="2"/>
+        <v>147.1</v>
       </c>
       <c r="D329">
-        <v>141.07</v>
+        <v>147.07</v>
       </c>
       <c r="E329" t="s">
         <v>122</v>
@@ -9101,10 +9126,11 @@
         <v>506</v>
       </c>
       <c r="C330">
-        <v>141.07</v>
+        <f t="shared" si="2"/>
+        <v>147.07</v>
       </c>
       <c r="D330">
-        <v>141.32</v>
+        <v>147.32</v>
       </c>
       <c r="E330" t="s">
         <v>507</v>
@@ -9121,10 +9147,11 @@
         <v>508</v>
       </c>
       <c r="C331">
-        <v>141.32</v>
+        <f t="shared" si="2"/>
+        <v>147.32</v>
       </c>
       <c r="D331">
-        <v>141.33500000000001</v>
+        <v>147.33500000000001</v>
       </c>
       <c r="E331" t="s">
         <v>507</v>
@@ -9141,10 +9168,11 @@
         <v>509</v>
       </c>
       <c r="C332">
-        <v>141.33500000000001</v>
+        <f t="shared" si="2"/>
+        <v>147.33500000000001</v>
       </c>
       <c r="D332">
-        <v>142.465</v>
+        <v>148.465</v>
       </c>
       <c r="E332" t="s">
         <v>510</v>
@@ -9161,7 +9189,8 @@
         <v>511</v>
       </c>
       <c r="C333">
-        <v>142.465</v>
+        <f t="shared" si="2"/>
+        <v>148.465</v>
       </c>
       <c r="D333">
         <v>142.49</v>
@@ -9181,6 +9210,7 @@
         <v>512</v>
       </c>
       <c r="C334">
+        <f t="shared" si="2"/>
         <v>142.49</v>
       </c>
       <c r="D334">
@@ -9201,6 +9231,7 @@
         <v>513</v>
       </c>
       <c r="C335">
+        <f t="shared" si="2"/>
         <v>143.31</v>
       </c>
       <c r="D335">
@@ -9221,6 +9252,7 @@
         <v>515</v>
       </c>
       <c r="C336">
+        <f t="shared" si="2"/>
         <v>143.48500000000001</v>
       </c>
       <c r="D336">
@@ -9230,7 +9262,7 @@
         <v>150</v>
       </c>
       <c r="F336" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
